--- a/data/post_internal/filtered_suggested_activities.xlsx
+++ b/data/post_internal/filtered_suggested_activities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,103 +1308,81 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>e-commerce</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>e-commerce-Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+          <t>Formateur QHSE-Formateur QHSE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Formateur QHSE</t>
+          <t>تركيب الهوائيات المقعرة montage parabole</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>Formateur QHSE</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Formateur QHSE-Formateur QHSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>تركيب الهوائيات المقعرة montage parabole</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>اعمال التركيب _x000D_
 وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>تركيب الهوائيات المقعرة montage parabole-اعمال التركيب _x000D_
 وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي-تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Conseiller en gestion et commercialisation des centres commerciaux</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>-Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -1414,7 +1392,7 @@
 -Conseiller les entrepreneurs sur la gestion du centre après ouverture</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Conseiller en gestion et commercialisation des centres commerciaux--Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -1425,6 +1403,28 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة التتبع والتموقع</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+    </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
@@ -1433,37 +1433,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>تركيب اجهزة التتبع والتموقع</t>
+          <t>Relation et partenariats</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+          <t>Service relationnel et partenariats en entreprises</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Relation et partenariats</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Service relationnel et partenariats en entreprises</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
         <is>
           <t>Relation et partenariats-Service relationnel et partenariats en entreprises</t>
         </is>

--- a/data/post_internal/filtered_suggested_activities.xlsx
+++ b/data/post_internal/filtered_suggested_activities.xlsx
@@ -945,103 +945,101 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trading / التداول</t>
+          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
+          <t>مجال الاعلام الآلي بمختلف الأنواع</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Trading / التداول-Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
+          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية-مجال الاعلام الآلي بمختلف الأنواع</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية</t>
+          <t>Coiffure esthétique</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>مجال الاعلام الآلي بمختلف الأنواع</t>
+          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية-مجال الاعلام الآلي بمختلف الأنواع</t>
+          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coiffure esthétique</t>
+          <t>سياقة درجة نارية</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+          <t>Easy &amp; Speed</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+          <t>سياقة درجة نارية-Easy &amp; Speed</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية</t>
+          <t>Calligraphe</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Easy &amp; Speed</t>
+          <t>Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية-Easy &amp; Speed</t>
+          <t>Calligraphe-Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Calligraphe</t>
+          <t>تصليح العجلات</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
+          <t>تصليح العجلات</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Calligraphe-Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
+          <t>تصليح العجلات-تصليح العجلات</t>
         </is>
       </c>
     </row>
@@ -1053,98 +1051,76 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>تصليح العجلات</t>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>تصليح العجلات</t>
+          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>تصليح العجلات-تصليح العجلات</t>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
+          <t>agence de publicite</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
-        <is>
-          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>agence de publicite</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>poseur dautocollant _x000D_
 publicite au lieu de vente</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>agence de publicite-poseur dautocollant _x000D_
 publicite au lieu de vente</t>
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>صنع الأطعمة و الأطباق المعدة</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
+أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>صنع الأطعمة و الأطباق المعدة-نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
+أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
+        </is>
+      </c>
+    </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>صنع الأطعمة و الأطباق المعدة</t>
+          <t>Contrôle et inspection CND</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
-        <is>
-          <t>نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
-أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>صنع الأطعمة و الأطباق المعدة-نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
-أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Contrôle et inspection CND</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>Inspection et contrôler en CND niv II_x000D_
 Courant de Foucault ECT_x000D_
@@ -1158,7 +1134,7 @@
 Merci</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Contrôle et inspection CND-Inspection et contrôler en CND niv II_x000D_
 Courant de Foucault ECT_x000D_
@@ -1173,135 +1149,157 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bureau d'affaire</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Bureau d'affaire</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Bureau d'affaire-Bureau d'affaire</t>
+        </is>
+      </c>
+    </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bureau d'affaire</t>
+          <t>Conseiller en finances d'entreprises</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bureau d'affaire</t>
+          <t>Conseilles et analyses aux entreprises dans le domaine des analyses et choix financiers.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bureau d'affaire-Bureau d'affaire</t>
+          <t>Conseiller en finances d'entreprises-Conseilles et analyses aux entreprises dans le domaine des analyses et choix financiers.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Conseiller en finances d'entreprises</t>
+          <t>تركيب وصيانة  الطاقة الشمسية</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Conseilles et analyses aux entreprises dans le domaine des analyses et choix financiers.</t>
+          <t>تركيب الطاقة الشمسية</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Conseiller en finances d'entreprises-Conseilles et analyses aux entreprises dans le domaine des analyses et choix financiers.</t>
+          <t>تركيب وصيانة  الطاقة الشمسية-تركيب الطاقة الشمسية</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>تركيب وصيانة  الطاقة الشمسية</t>
+          <t>ساىق vtc</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>تركيب الطاقة الشمسية</t>
+          <t>ساىق تطبيقات الكترونية</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>تركيب وصيانة  الطاقة الشمسية-تركيب الطاقة الشمسية</t>
+          <t>ساىق vtc-ساىق تطبيقات الكترونية</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ساىق vtc</t>
+          <t>بيع العتاد الكهربائي و الصناعي</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ساىق تطبيقات الكترونية</t>
+          <t>بيع منتجات كهربائية وصناعية للمؤسسات</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ساىق vtc-ساىق تطبيقات الكترونية</t>
+          <t>بيع العتاد الكهربائي و الصناعي-بيع منتجات كهربائية وصناعية للمؤسسات</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>بيع العتاد الكهربائي و الصناعي</t>
+          <t>التكييف و. التبريد</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>بيع منتجات كهربائية وصناعية للمؤسسات</t>
+          <t>Montage et réparation climatisation on général</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>بيع العتاد الكهربائي و الصناعي-بيع منتجات كهربائية وصناعية للمؤسسات</t>
+          <t>التكييف و. التبريد-Montage et réparation climatisation on général</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>التكييف و. التبريد</t>
+          <t>e-commerce</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Montage et réparation climatisation on général</t>
+          <t>Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>التكييف و. التبريد-Montage et réparation climatisation on général</t>
+          <t>e-commerce-Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
         </is>
       </c>
     </row>
